--- a/data/price_data.xlsx
+++ b/data/price_data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD34CCD1-86E7-4035-B44A-C49632EF7104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="5478" yWindow="8544" windowWidth="20928" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="价格数据" state="visible" r:id="rId4"/>
+    <sheet name="价格数据" sheetId="1" r:id="rId1"/>
+    <sheet name="整合数据" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -481,14 +486,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -851,11 +856,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X128"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="J119" sqref="J119"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="20.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -929,7 +942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1003,7 +1016,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1077,7 +1090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1148,10 +1161,10 @@
         <v>21</v>
       </c>
       <c r="X4">
-        <v>86.18225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>86.182249999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1225,7 +1238,7 @@
         <v>93.17</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1296,10 +1309,10 @@
         <v>21</v>
       </c>
       <c r="X6">
-        <v>815.2375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>815.23749999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1373,7 +1386,7 @@
         <v>1141.3325</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1447,7 +1460,7 @@
         <v>748.6875</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1521,7 +1534,7 @@
         <v>831.875</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1595,7 +1608,7 @@
         <v>30.613</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1666,10 +1679,10 @@
         <v>21</v>
       </c>
       <c r="X11">
-        <v>444.554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>444.55399999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1743,7 +1756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1814,10 +1827,10 @@
         <v>21</v>
       </c>
       <c r="X13">
-        <v>3.1944</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>3.1943999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1888,10 +1901,10 @@
         <v>21</v>
       </c>
       <c r="X14">
-        <v>9.5832</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>9.5831999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1962,10 +1975,10 @@
         <v>21</v>
       </c>
       <c r="X15">
-        <v>2.3958</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2.3957999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12</v>
       </c>
@@ -2036,10 +2049,10 @@
         <v>21</v>
       </c>
       <c r="X16">
-        <v>31.944</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+        <v>31.943999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>13</v>
       </c>
@@ -2110,10 +2123,10 @@
         <v>21</v>
       </c>
       <c r="X17">
-        <v>47.916</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+        <v>47.915999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>14</v>
       </c>
@@ -2184,10 +2197,10 @@
         <v>21</v>
       </c>
       <c r="X18">
-        <v>7.986</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+        <v>7.9859999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>15</v>
       </c>
@@ -2243,7 +2256,7 @@
         <v>2.4</v>
       </c>
       <c r="S19">
-        <v>0.525</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="T19" t="s">
         <v>21</v>
@@ -2258,10 +2271,10 @@
         <v>21</v>
       </c>
       <c r="X19">
-        <v>3.893175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+        <v>3.8931749999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2335,7 +2348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>16</v>
       </c>
@@ -2406,10 +2419,10 @@
         <v>21</v>
       </c>
       <c r="X21">
-        <v>11.1804</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+        <v>11.180400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>17</v>
       </c>
@@ -2480,10 +2493,10 @@
         <v>21</v>
       </c>
       <c r="X22">
-        <v>94.501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+        <v>94.501000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>18</v>
       </c>
@@ -2554,10 +2567,10 @@
         <v>21</v>
       </c>
       <c r="X23">
-        <v>69.4782</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+        <v>69.478200000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>19</v>
       </c>
@@ -2628,10 +2641,10 @@
         <v>21</v>
       </c>
       <c r="X24">
-        <v>120.78825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+        <v>120.78825000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>20</v>
       </c>
@@ -2687,7 +2700,7 @@
         <v>25</v>
       </c>
       <c r="S25">
-        <v>3.675</v>
+        <v>3.6749999999999998</v>
       </c>
       <c r="T25" t="s">
         <v>21</v>
@@ -2702,10 +2715,10 @@
         <v>21</v>
       </c>
       <c r="X25">
-        <v>38.166425</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+        <v>38.166424999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2779,7 +2792,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>21</v>
       </c>
@@ -2853,7 +2866,7 @@
         <v>66.55</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>22</v>
       </c>
@@ -2924,10 +2937,10 @@
         <v>21</v>
       </c>
       <c r="X28">
-        <v>5.5902</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+        <v>5.5902000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>23</v>
       </c>
@@ -3001,7 +3014,7 @@
         <v>16.936975</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>24</v>
       </c>
@@ -3072,10 +3085,10 @@
         <v>21</v>
       </c>
       <c r="X30">
-        <v>20.56395</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+        <v>20.563949999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>25</v>
       </c>
@@ -3146,10 +3159,10 @@
         <v>21</v>
       </c>
       <c r="X31">
-        <v>36.6025</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+        <v>36.602499999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>26</v>
       </c>
@@ -3220,10 +3233,10 @@
         <v>21</v>
       </c>
       <c r="X32">
-        <v>183.0125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+        <v>183.01249999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -3297,7 +3310,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -3371,7 +3384,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>27</v>
       </c>
@@ -3442,10 +3455,10 @@
         <v>21</v>
       </c>
       <c r="X35">
-        <v>28.15065</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+        <v>28.150649999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>28</v>
       </c>
@@ -3498,7 +3511,7 @@
         <v>21</v>
       </c>
       <c r="R36">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="S36">
         <v>3.15</v>
@@ -3516,10 +3529,10 @@
         <v>21</v>
       </c>
       <c r="X36">
-        <v>31.34505</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+        <v>31.345050000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>29</v>
       </c>
@@ -3575,7 +3588,7 @@
         <v>3</v>
       </c>
       <c r="S37">
-        <v>0.525</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="T37" t="s">
         <v>21</v>
@@ -3590,10 +3603,10 @@
         <v>21</v>
       </c>
       <c r="X37">
-        <v>4.691775</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+        <v>4.6917749999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>30</v>
       </c>
@@ -3667,7 +3680,7 @@
         <v>20.3643</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>31</v>
       </c>
@@ -3738,10 +3751,10 @@
         <v>21</v>
       </c>
       <c r="X39">
-        <v>3.27327</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+        <v>3.2732700000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>32</v>
       </c>
@@ -3812,10 +3825,10 @@
         <v>21</v>
       </c>
       <c r="X40">
-        <v>8.84862</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+        <v>8.8486200000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>33</v>
       </c>
@@ -3886,10 +3899,10 @@
         <v>21</v>
       </c>
       <c r="X41">
-        <v>6.54654</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+        <v>6.5465400000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>34</v>
       </c>
@@ -3960,10 +3973,10 @@
         <v>21</v>
       </c>
       <c r="X42">
-        <v>3.84879</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+        <v>3.8487900000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>35</v>
       </c>
@@ -4034,10 +4047,10 @@
         <v>21</v>
       </c>
       <c r="X43">
-        <v>9.42414</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+        <v>9.4241399999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>36</v>
       </c>
@@ -4108,10 +4121,10 @@
         <v>21</v>
       </c>
       <c r="X44">
-        <v>7.12206</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+        <v>7.1220600000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -4185,7 +4198,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -4259,7 +4272,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>37</v>
       </c>
@@ -4330,10 +4343,10 @@
         <v>21</v>
       </c>
       <c r="X47">
-        <v>80.3924</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+        <v>80.392399999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>38</v>
       </c>
@@ -4404,10 +4417,10 @@
         <v>21</v>
       </c>
       <c r="X48">
-        <v>97.6954</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+        <v>97.695400000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>39</v>
       </c>
@@ -4478,10 +4491,10 @@
         <v>21</v>
       </c>
       <c r="X49">
-        <v>89.0439</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+        <v>89.043899999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>40</v>
       </c>
@@ -4552,10 +4565,10 @@
         <v>21</v>
       </c>
       <c r="X50">
-        <v>21.49565</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+        <v>21.495650000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -4629,7 +4642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>41</v>
       </c>
@@ -4700,10 +4713,10 @@
         <v>21</v>
       </c>
       <c r="X52">
-        <v>87.4467</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+        <v>87.446700000000007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>42</v>
       </c>
@@ -4774,10 +4787,10 @@
         <v>21</v>
       </c>
       <c r="X53">
-        <v>147.741</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+        <v>147.74100000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>43</v>
       </c>
@@ -4851,7 +4864,7 @@
         <v>111.9371</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>44</v>
       </c>
@@ -4922,10 +4935,10 @@
         <v>21</v>
       </c>
       <c r="X55">
-        <v>177.1561</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+        <v>177.15610000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -4999,7 +5012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -5073,7 +5086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>45</v>
       </c>
@@ -5147,7 +5160,7 @@
         <v>57.7654</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>46</v>
       </c>
@@ -5218,10 +5231,10 @@
         <v>21</v>
       </c>
       <c r="X59">
-        <v>35.0053</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+        <v>35.005299999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>47</v>
       </c>
@@ -5292,10 +5305,10 @@
         <v>21</v>
       </c>
       <c r="X60">
-        <v>88.84425</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+        <v>88.844250000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>48</v>
       </c>
@@ -5366,10 +5379,10 @@
         <v>21</v>
       </c>
       <c r="X61">
-        <v>47.7829</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+        <v>47.782899999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>49</v>
       </c>
@@ -5440,10 +5453,10 @@
         <v>21</v>
       </c>
       <c r="X62">
-        <v>47.45015</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+        <v>47.450150000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>50</v>
       </c>
@@ -5514,10 +5527,10 @@
         <v>21</v>
       </c>
       <c r="X63">
-        <v>65.219</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+        <v>65.218999999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>51</v>
       </c>
@@ -5588,10 +5601,10 @@
         <v>21</v>
       </c>
       <c r="X64">
-        <v>186.67275</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+        <v>186.67275000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -5665,7 +5678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>52</v>
       </c>
@@ -5736,10 +5749,10 @@
         <v>21</v>
       </c>
       <c r="X66">
-        <v>74.86875</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+        <v>74.868750000000006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>53</v>
       </c>
@@ -5813,7 +5826,7 @@
         <v>207.636</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>54</v>
       </c>
@@ -5884,10 +5897,10 @@
         <v>21</v>
       </c>
       <c r="X68">
-        <v>71.2085</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+        <v>71.208500000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>55</v>
       </c>
@@ -5958,10 +5971,10 @@
         <v>21</v>
       </c>
       <c r="X69">
-        <v>173.6955</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+        <v>173.69550000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -6035,7 +6048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -6109,7 +6122,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>56</v>
       </c>
@@ -6180,10 +6193,10 @@
         <v>21</v>
       </c>
       <c r="X72">
-        <v>97.6954</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+        <v>97.695400000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>57</v>
       </c>
@@ -6254,10 +6267,10 @@
         <v>21</v>
       </c>
       <c r="X73">
-        <v>94.83375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+        <v>94.833749999999995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>58</v>
       </c>
@@ -6328,10 +6341,10 @@
         <v>21</v>
       </c>
       <c r="X74">
-        <v>285.83225</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+        <v>285.83224999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>59</v>
       </c>
@@ -6402,10 +6415,10 @@
         <v>21</v>
       </c>
       <c r="X75">
-        <v>141.086</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+        <v>141.08600000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -6479,7 +6492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -6553,7 +6566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>60</v>
       </c>
@@ -6627,7 +6640,7 @@
         <v>66.55</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>61</v>
       </c>
@@ -6698,10 +6711,10 @@
         <v>21</v>
       </c>
       <c r="X79">
-        <v>24.95625</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+        <v>24.956250000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>62</v>
       </c>
@@ -6775,7 +6788,7 @@
         <v>2968.13</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>63</v>
       </c>
@@ -6846,10 +6859,10 @@
         <v>21</v>
       </c>
       <c r="X81">
-        <v>4452.195</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+        <v>4452.1949999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>64</v>
       </c>
@@ -6920,10 +6933,10 @@
         <v>21</v>
       </c>
       <c r="X82">
-        <v>95.832</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+        <v>95.831999999999994</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>65</v>
       </c>
@@ -6997,7 +7010,7 @@
         <v>1441.473</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>66</v>
       </c>
@@ -7068,10 +7081,10 @@
         <v>21</v>
       </c>
       <c r="X84">
-        <v>150.2699</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+        <v>150.26990000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>67</v>
       </c>
@@ -7142,10 +7155,10 @@
         <v>21</v>
       </c>
       <c r="X85">
-        <v>82.1227</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+        <v>82.122699999999995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>68</v>
       </c>
@@ -7219,7 +7232,7 @@
         <v>705.43</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>69</v>
       </c>
@@ -7290,10 +7303,10 @@
         <v>21</v>
       </c>
       <c r="X87">
-        <v>283.503</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+        <v>283.50299999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>70</v>
       </c>
@@ -7364,10 +7377,10 @@
         <v>21</v>
       </c>
       <c r="X88">
-        <v>79.3276</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+        <v>79.327600000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>71</v>
       </c>
@@ -7438,10 +7451,10 @@
         <v>21</v>
       </c>
       <c r="X89">
-        <v>991.595</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+        <v>991.59500000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>72</v>
       </c>
@@ -7515,7 +7528,7 @@
         <v>1642.454</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>73</v>
       </c>
@@ -7586,10 +7599,10 @@
         <v>21</v>
       </c>
       <c r="X91">
-        <v>550.3685</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+        <v>550.36850000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>74</v>
       </c>
@@ -7660,10 +7673,10 @@
         <v>21</v>
       </c>
       <c r="X92">
-        <v>85.184</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+        <v>85.183999999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>75</v>
       </c>
@@ -7734,10 +7747,10 @@
         <v>21</v>
       </c>
       <c r="X93">
-        <v>480.491</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+        <v>480.49099999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>21</v>
       </c>
@@ -7811,7 +7824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>76</v>
       </c>
@@ -7885,7 +7898,7 @@
         <v>79.86</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>77</v>
       </c>
@@ -7956,10 +7969,10 @@
         <v>21</v>
       </c>
       <c r="X96">
-        <v>23.958</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+        <v>23.957999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>78</v>
       </c>
@@ -8030,10 +8043,10 @@
         <v>21</v>
       </c>
       <c r="X97">
-        <v>1068.1275</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1068.1275000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>79</v>
       </c>
@@ -8104,10 +8117,10 @@
         <v>21</v>
       </c>
       <c r="X98">
-        <v>1886.6925</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1886.6925000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>80</v>
       </c>
@@ -8178,10 +8191,10 @@
         <v>21</v>
       </c>
       <c r="X99">
-        <v>87.51325</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+        <v>87.513249999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>81</v>
       </c>
@@ -8252,10 +8265,10 @@
         <v>21</v>
       </c>
       <c r="X100">
-        <v>527.7415</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+        <v>527.74149999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>82</v>
       </c>
@@ -8329,7 +8342,7 @@
         <v>83.1875</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>83</v>
       </c>
@@ -8385,7 +8398,7 @@
         <v>187.5</v>
       </c>
       <c r="S102">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="T102" t="s">
         <v>21</v>
@@ -8400,10 +8413,10 @@
         <v>21</v>
       </c>
       <c r="X102">
-        <v>274.7184</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+        <v>274.71839999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>84</v>
       </c>
@@ -8477,7 +8490,7 @@
         <v>56.90025</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>85</v>
       </c>
@@ -8548,10 +8561,10 @@
         <v>21</v>
       </c>
       <c r="X104">
-        <v>94.3679</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+        <v>94.367900000000006</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>86</v>
       </c>
@@ -8622,10 +8635,10 @@
         <v>21</v>
       </c>
       <c r="X105">
-        <v>527.7415</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+        <v>527.74149999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>21</v>
       </c>
@@ -8699,7 +8712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>87</v>
       </c>
@@ -8770,10 +8783,10 @@
         <v>21</v>
       </c>
       <c r="X107">
-        <v>36.7356</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+        <v>36.735599999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>88</v>
       </c>
@@ -8844,10 +8857,10 @@
         <v>21</v>
       </c>
       <c r="X108">
-        <v>28.7496</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+        <v>28.749600000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>89</v>
       </c>
@@ -8918,10 +8931,10 @@
         <v>21</v>
       </c>
       <c r="X109">
-        <v>17.5692</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+        <v>17.569199999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>90</v>
       </c>
@@ -8995,7 +9008,7 @@
         <v>1896.675</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>91</v>
       </c>
@@ -9051,7 +9064,7 @@
         <v>20</v>
       </c>
       <c r="S111">
-        <v>4.725</v>
+        <v>4.7249999999999996</v>
       </c>
       <c r="T111" t="s">
         <v>21</v>
@@ -9066,10 +9079,10 @@
         <v>21</v>
       </c>
       <c r="X111">
-        <v>32.908975</v>
-      </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+        <v>32.908974999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>92</v>
       </c>
@@ -9143,7 +9156,7 @@
         <v>102.81975</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>93</v>
       </c>
@@ -9199,7 +9212,7 @@
         <v>45</v>
       </c>
       <c r="S113">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="T113" t="s">
         <v>21</v>
@@ -9214,10 +9227,10 @@
         <v>21</v>
       </c>
       <c r="X113">
-        <v>85.0509</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+        <v>85.050899999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>94</v>
       </c>
@@ -9288,10 +9301,10 @@
         <v>21</v>
       </c>
       <c r="X114">
-        <v>13.278925</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+        <v>13.278924999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>95</v>
       </c>
@@ -9365,7 +9378,7 @@
         <v>14.777675</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>96</v>
       </c>
@@ -9436,10 +9449,10 @@
         <v>21</v>
       </c>
       <c r="X116">
-        <v>393.3105</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+        <v>393.31049999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>97</v>
       </c>
@@ -9510,10 +9523,10 @@
         <v>21</v>
       </c>
       <c r="X117">
-        <v>305.4645</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+        <v>305.46449999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>98</v>
       </c>
@@ -9587,7 +9600,7 @@
         <v>473.1705</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>99</v>
       </c>
@@ -9658,10 +9671,10 @@
         <v>21</v>
       </c>
       <c r="X119">
-        <v>149.7375</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+        <v>149.73750000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>21</v>
       </c>
@@ -9735,7 +9748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>100</v>
       </c>
@@ -9806,10 +9819,10 @@
         <v>21</v>
       </c>
       <c r="X121">
-        <v>15.77235</v>
-      </c>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15.772349999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>101</v>
       </c>
@@ -9880,10 +9893,10 @@
         <v>21</v>
       </c>
       <c r="X122">
-        <v>4.3923</v>
-      </c>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+        <v>4.3922999999999996</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>102</v>
       </c>
@@ -9954,10 +9967,10 @@
         <v>21</v>
       </c>
       <c r="X123">
-        <v>34.3398</v>
-      </c>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+        <v>34.339799999999997</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>103</v>
       </c>
@@ -10028,10 +10041,10 @@
         <v>21</v>
       </c>
       <c r="X124">
-        <v>41.1279</v>
-      </c>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+        <v>41.127899999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>104</v>
       </c>
@@ -10102,10 +10115,10 @@
         <v>21</v>
       </c>
       <c r="X125">
-        <v>25.35555</v>
-      </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25.355550000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>105</v>
       </c>
@@ -10176,10 +10189,10 @@
         <v>21</v>
       </c>
       <c r="X126">
-        <v>4.7916</v>
-      </c>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+        <v>4.7915999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>106</v>
       </c>
@@ -10253,7 +10266,7 @@
         <v>127.776</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>107</v>
       </c>
@@ -10329,6 +10342,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804249DA-6D03-4335-BFDE-C4D33C58770B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/price_data.xlsx
+++ b/data/price_data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="158">
   <si>
     <t>序号</t>
   </si>
@@ -93,7 +93,7 @@
     <t>含税价格/单位</t>
   </si>
   <si>
-    <t>默认</t>
+    <t>套餐</t>
   </si>
   <si>
     <t>默认数量</t>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>水电线路改造（格局变动：三件套+暖气片+简单排气）</t>
+  </si>
+  <si>
+    <t>浴室瓷砖（标准）</t>
   </si>
   <si>
     <t>浴室瓷砖（小面积）</t>
@@ -511,7 +514,14 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,31 +977,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1000,115 +1007,118 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1499,13 +1509,13 @@
   <sheetPr/>
   <dimension ref="A1:AA128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="W71" sqref="W71"/>
+    <sheetView tabSelected="1" topLeftCell="C94" workbookViewId="0">
+      <selection activeCell="Z110" sqref="Z110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="20.0857142857143" customWidth="1"/>
+    <col min="6" max="6" width="35.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1588,7 +1598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1661,8 +1671,17 @@
       <c r="X2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1735,6 +1754,15 @@
       <c r="X3" t="s">
         <v>23</v>
       </c>
+      <c r="Y3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4">
@@ -1789,7 +1817,7 @@
         <v>23</v>
       </c>
       <c r="R4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S4">
         <v>21</v>
@@ -1807,13 +1835,16 @@
         <v>23</v>
       </c>
       <c r="X4">
-        <v>86.18225</v>
+        <v>66</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>23</v>
       </c>
       <c r="Z4">
         <v>1</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -1887,7 +1918,10 @@
         <v>23</v>
       </c>
       <c r="X5">
-        <v>93.17</v>
+        <v>71.25</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>23</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1967,7 +2001,10 @@
         <v>23</v>
       </c>
       <c r="X6">
-        <v>815.2375</v>
+        <v>612.5</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>23</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -2047,7 +2084,10 @@
         <v>23</v>
       </c>
       <c r="X7">
-        <v>1141.3325</v>
+        <v>857.5</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>23</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -2127,10 +2167,13 @@
         <v>23</v>
       </c>
       <c r="X8">
-        <v>748.6875</v>
+        <v>562.5</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>23</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>1</v>
@@ -2207,7 +2250,10 @@
         <v>23</v>
       </c>
       <c r="X9">
-        <v>831.875</v>
+        <v>625</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>23</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2287,13 +2333,16 @@
         <v>23</v>
       </c>
       <c r="X10">
-        <v>30.613</v>
+        <v>23</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>23</v>
       </c>
       <c r="Z10">
         <v>1</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -2367,16 +2416,19 @@
         <v>23</v>
       </c>
       <c r="X11">
-        <v>444.554</v>
+        <v>334</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>23</v>
       </c>
       <c r="Z11">
         <v>1</v>
       </c>
       <c r="AA11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2447,6 +2499,15 @@
         <v>23</v>
       </c>
       <c r="X12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2521,7 +2582,10 @@
         <v>23</v>
       </c>
       <c r="X13">
-        <v>3.1944</v>
+        <v>2.4</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>23</v>
       </c>
       <c r="Z13">
         <v>1</v>
@@ -2601,7 +2665,10 @@
         <v>23</v>
       </c>
       <c r="X14">
-        <v>9.5832</v>
+        <v>7.2</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>23</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2681,7 +2748,10 @@
         <v>23</v>
       </c>
       <c r="X15">
-        <v>2.3958</v>
+        <v>1.8</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>23</v>
       </c>
       <c r="Z15">
         <v>1</v>
@@ -2761,7 +2831,10 @@
         <v>23</v>
       </c>
       <c r="X16">
-        <v>31.944</v>
+        <v>24</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>23</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -2841,7 +2914,10 @@
         <v>23</v>
       </c>
       <c r="X17">
-        <v>47.916</v>
+        <v>36</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>23</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2921,7 +2997,10 @@
         <v>23</v>
       </c>
       <c r="X18">
-        <v>7.986</v>
+        <v>6</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>23</v>
       </c>
       <c r="Z18">
         <v>1</v>
@@ -3001,7 +3080,10 @@
         <v>23</v>
       </c>
       <c r="X19">
-        <v>3.893175</v>
+        <v>2.925</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>23</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -3010,7 +3092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3081,6 +3163,15 @@
         <v>23</v>
       </c>
       <c r="X20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3155,7 +3246,10 @@
         <v>23</v>
       </c>
       <c r="X21">
-        <v>11.1804</v>
+        <v>8.4</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>23</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3235,7 +3329,10 @@
         <v>23</v>
       </c>
       <c r="X22">
-        <v>94.501</v>
+        <v>71</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>23</v>
       </c>
       <c r="Z22">
         <v>1</v>
@@ -3315,7 +3412,10 @@
         <v>23</v>
       </c>
       <c r="X23">
-        <v>69.4782</v>
+        <v>52.2</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>23</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3395,7 +3495,10 @@
         <v>23</v>
       </c>
       <c r="X24">
-        <v>120.78825</v>
+        <v>90.75</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>23</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3475,7 +3578,10 @@
         <v>23</v>
       </c>
       <c r="X25">
-        <v>38.166425</v>
+        <v>28.675</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>23</v>
       </c>
       <c r="Z25">
         <v>1</v>
@@ -3484,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3555,6 +3661,15 @@
         <v>23</v>
       </c>
       <c r="X26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA26" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3629,7 +3744,10 @@
         <v>23</v>
       </c>
       <c r="X27">
-        <v>66.55</v>
+        <v>50</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>23</v>
       </c>
       <c r="Z27">
         <v>1</v>
@@ -3709,7 +3827,10 @@
         <v>23</v>
       </c>
       <c r="X28">
-        <v>5.5902</v>
+        <v>4.2</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>23</v>
       </c>
       <c r="Z28">
         <v>1</v>
@@ -3789,7 +3910,10 @@
         <v>23</v>
       </c>
       <c r="X29">
-        <v>16.936975</v>
+        <v>12.725</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>23</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3869,7 +3993,10 @@
         <v>23</v>
       </c>
       <c r="X30">
-        <v>20.56395</v>
+        <v>15.45</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>23</v>
       </c>
       <c r="Z30">
         <v>1</v>
@@ -3949,7 +4076,10 @@
         <v>23</v>
       </c>
       <c r="X31">
-        <v>36.6025</v>
+        <v>27.5</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>23</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -4029,16 +4159,19 @@
         <v>23</v>
       </c>
       <c r="X32">
-        <v>183.0125</v>
+        <v>137.5</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>23</v>
       </c>
       <c r="Z32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -4111,8 +4244,17 @@
       <c r="X33" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="Y33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -4183,6 +4325,15 @@
         <v>23</v>
       </c>
       <c r="X34" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA34" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4257,7 +4408,10 @@
         <v>23</v>
       </c>
       <c r="X35">
-        <v>28.15065</v>
+        <v>21.15</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>23</v>
       </c>
       <c r="Z35">
         <v>1</v>
@@ -4337,7 +4491,10 @@
         <v>23</v>
       </c>
       <c r="X36">
-        <v>31.34505</v>
+        <v>23.55</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>23</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4417,7 +4574,10 @@
         <v>23</v>
       </c>
       <c r="X37">
-        <v>4.691775</v>
+        <v>3.525</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>23</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4497,7 +4657,10 @@
         <v>23</v>
       </c>
       <c r="X38">
-        <v>20.3643</v>
+        <v>15.3</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>23</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4577,7 +4740,10 @@
         <v>23</v>
       </c>
       <c r="X39">
-        <v>3.27327</v>
+        <v>2.73</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>23</v>
       </c>
       <c r="Z39">
         <v>1</v>
@@ -4657,10 +4823,13 @@
         <v>23</v>
       </c>
       <c r="X40">
-        <v>8.84862</v>
+        <v>7.38</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>23</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40">
         <v>1</v>
@@ -4737,7 +4906,10 @@
         <v>23</v>
       </c>
       <c r="X41">
-        <v>6.54654</v>
+        <v>5.46</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>23</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4817,7 +4989,10 @@
         <v>23</v>
       </c>
       <c r="X42">
-        <v>3.84879</v>
+        <v>3.21</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>23</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4897,7 +5072,10 @@
         <v>23</v>
       </c>
       <c r="X43">
-        <v>9.42414</v>
+        <v>7.86</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>23</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4977,7 +5155,10 @@
         <v>23</v>
       </c>
       <c r="X44">
-        <v>7.12206</v>
+        <v>5.94</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>23</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4986,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -5059,8 +5240,17 @@
       <c r="X45" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="1:24">
+      <c r="Y45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -5131,6 +5321,15 @@
         <v>23</v>
       </c>
       <c r="X46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA46" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5205,7 +5404,10 @@
         <v>23</v>
       </c>
       <c r="X47">
-        <v>80.3924</v>
+        <v>60.4</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>23</v>
       </c>
       <c r="Z47">
         <v>1</v>
@@ -5285,7 +5487,10 @@
         <v>23</v>
       </c>
       <c r="X48">
-        <v>97.6954</v>
+        <v>73.4</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>23</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5365,7 +5570,10 @@
         <v>23</v>
       </c>
       <c r="X49">
-        <v>89.0439</v>
+        <v>66.9</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>23</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5445,7 +5653,10 @@
         <v>23</v>
       </c>
       <c r="X50">
-        <v>21.49565</v>
+        <v>16.15</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>23</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5454,7 +5665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -5525,6 +5736,15 @@
         <v>23</v>
       </c>
       <c r="X51" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA51" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5599,7 +5819,10 @@
         <v>23</v>
       </c>
       <c r="X52">
-        <v>87.4467</v>
+        <v>65.7</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>23</v>
       </c>
       <c r="Z52">
         <v>1</v>
@@ -5679,7 +5902,10 @@
         <v>23</v>
       </c>
       <c r="X53">
-        <v>147.741</v>
+        <v>111</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>23</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5759,7 +5985,10 @@
         <v>23</v>
       </c>
       <c r="X54">
-        <v>111.9371</v>
+        <v>84.1</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>23</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5839,7 +6068,10 @@
         <v>23</v>
       </c>
       <c r="X55">
-        <v>177.1561</v>
+        <v>133.1</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>23</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5848,7 +6080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -5921,8 +6153,17 @@
       <c r="X56" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="57" spans="1:24">
+      <c r="Y56" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -5993,6 +6234,15 @@
         <v>23</v>
       </c>
       <c r="X57" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA57" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6067,7 +6317,10 @@
         <v>23</v>
       </c>
       <c r="X58">
-        <v>57.7654</v>
+        <v>43.4</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>23</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6147,7 +6400,10 @@
         <v>23</v>
       </c>
       <c r="X59">
-        <v>35.0053</v>
+        <v>26.3</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>23</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6227,7 +6483,10 @@
         <v>23</v>
       </c>
       <c r="X60">
-        <v>88.84425</v>
+        <v>66.75</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>23</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6307,7 +6566,10 @@
         <v>23</v>
       </c>
       <c r="X61">
-        <v>47.7829</v>
+        <v>35.9</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>23</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6387,7 +6649,10 @@
         <v>23</v>
       </c>
       <c r="X62">
-        <v>47.45015</v>
+        <v>35.65</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>23</v>
       </c>
       <c r="Z62">
         <v>1</v>
@@ -6467,7 +6732,10 @@
         <v>23</v>
       </c>
       <c r="X63">
-        <v>65.219</v>
+        <v>49</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>23</v>
       </c>
       <c r="Z63">
         <v>1</v>
@@ -6547,7 +6815,10 @@
         <v>23</v>
       </c>
       <c r="X64">
-        <v>186.67275</v>
+        <v>140.25</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>23</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6556,7 +6827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" spans="1:27">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -6627,6 +6898,15 @@
         <v>23</v>
       </c>
       <c r="X65" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA65" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6701,7 +6981,10 @@
         <v>23</v>
       </c>
       <c r="X66">
-        <v>74.86875</v>
+        <v>56.25</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>23</v>
       </c>
       <c r="Z66">
         <v>1</v>
@@ -6781,7 +7064,10 @@
         <v>23</v>
       </c>
       <c r="X67">
-        <v>207.636</v>
+        <v>156</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>23</v>
       </c>
       <c r="Z67">
         <v>1</v>
@@ -6861,10 +7147,13 @@
         <v>23</v>
       </c>
       <c r="X68">
-        <v>71.2085</v>
+        <v>53.5</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>23</v>
       </c>
       <c r="Z68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA68">
         <v>1</v>
@@ -6941,7 +7230,10 @@
         <v>23</v>
       </c>
       <c r="X69">
-        <v>173.6955</v>
+        <v>130.5</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>23</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -6950,7 +7242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:27">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -7023,8 +7315,17 @@
       <c r="X70" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="71" spans="1:24">
+      <c r="Y70" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -7095,6 +7396,15 @@
         <v>23</v>
       </c>
       <c r="X71" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA71" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7169,7 +7479,10 @@
         <v>23</v>
       </c>
       <c r="X72">
-        <v>97.6954</v>
+        <v>73.4</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>23</v>
       </c>
       <c r="Z72">
         <v>1</v>
@@ -7249,10 +7562,13 @@
         <v>23</v>
       </c>
       <c r="X73">
-        <v>94.83375</v>
+        <v>71.25</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>23</v>
       </c>
       <c r="Z73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA73">
         <v>1</v>
@@ -7329,7 +7645,10 @@
         <v>23</v>
       </c>
       <c r="X74">
-        <v>285.83225</v>
+        <v>214.75</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>23</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7409,16 +7728,19 @@
         <v>23</v>
       </c>
       <c r="X75">
-        <v>141.086</v>
+        <v>106</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>23</v>
       </c>
       <c r="Z75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:24">
+    <row r="76" spans="1:27">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -7491,8 +7813,17 @@
       <c r="X76" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="77" spans="1:24">
+      <c r="Y76" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -7563,6 +7894,15 @@
         <v>23</v>
       </c>
       <c r="X77" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA77" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7637,7 +7977,10 @@
         <v>23</v>
       </c>
       <c r="X78">
-        <v>66.55</v>
+        <v>50</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>23</v>
       </c>
       <c r="Z78">
         <v>1</v>
@@ -7717,13 +8060,16 @@
         <v>23</v>
       </c>
       <c r="X79">
-        <v>24.95625</v>
+        <v>18.75</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>23</v>
       </c>
       <c r="Z79">
         <v>1</v>
       </c>
       <c r="AA79">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:27">
@@ -7797,7 +8143,10 @@
         <v>23</v>
       </c>
       <c r="X80">
-        <v>2968.13</v>
+        <v>2230</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>23</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7877,7 +8226,10 @@
         <v>23</v>
       </c>
       <c r="X81">
-        <v>4452.195</v>
+        <v>3345</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>23</v>
       </c>
       <c r="Z81">
         <v>1</v>
@@ -7933,7 +8285,7 @@
         <v>23</v>
       </c>
       <c r="P82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q82" t="s">
         <v>23</v>
@@ -7957,13 +8309,16 @@
         <v>23</v>
       </c>
       <c r="X82">
-        <v>95.832</v>
+        <v>72</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>23</v>
       </c>
       <c r="Z82">
         <v>1</v>
       </c>
       <c r="AA82">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:27">
@@ -7983,7 +8338,7 @@
         <v>23</v>
       </c>
       <c r="F83" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G83" t="s">
         <v>23</v>
@@ -8013,7 +8368,7 @@
         <v>23</v>
       </c>
       <c r="P83" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q83" t="s">
         <v>23</v>
@@ -8037,7 +8392,10 @@
         <v>23</v>
       </c>
       <c r="X83">
-        <v>1441.473</v>
+        <v>1083</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>23</v>
       </c>
       <c r="Z83">
         <v>1</v>
@@ -8063,7 +8421,7 @@
         <v>23</v>
       </c>
       <c r="F84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G84" t="s">
         <v>23</v>
@@ -8093,7 +8451,7 @@
         <v>23</v>
       </c>
       <c r="P84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q84" t="s">
         <v>23</v>
@@ -8117,7 +8475,10 @@
         <v>23</v>
       </c>
       <c r="X84">
-        <v>150.2699</v>
+        <v>112.9</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>23</v>
       </c>
       <c r="Z84">
         <v>1</v>
@@ -8143,7 +8504,7 @@
         <v>23</v>
       </c>
       <c r="F85" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G85" t="s">
         <v>23</v>
@@ -8173,7 +8534,7 @@
         <v>23</v>
       </c>
       <c r="P85" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q85" t="s">
         <v>23</v>
@@ -8197,7 +8558,10 @@
         <v>23</v>
       </c>
       <c r="X85">
-        <v>82.1227</v>
+        <v>61.7</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>23</v>
       </c>
       <c r="Z85">
         <v>1</v>
@@ -8223,37 +8587,37 @@
         <v>23</v>
       </c>
       <c r="F86" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G86" t="s">
         <v>23</v>
       </c>
       <c r="H86" t="s">
+        <v>118</v>
+      </c>
+      <c r="I86" t="s">
+        <v>23</v>
+      </c>
+      <c r="J86" t="s">
+        <v>118</v>
+      </c>
+      <c r="K86" t="s">
+        <v>23</v>
+      </c>
+      <c r="L86" t="s">
+        <v>23</v>
+      </c>
+      <c r="M86" t="s">
+        <v>23</v>
+      </c>
+      <c r="N86" t="s">
+        <v>23</v>
+      </c>
+      <c r="O86" t="s">
+        <v>23</v>
+      </c>
+      <c r="P86" t="s">
         <v>117</v>
-      </c>
-      <c r="I86" t="s">
-        <v>23</v>
-      </c>
-      <c r="J86" t="s">
-        <v>117</v>
-      </c>
-      <c r="K86" t="s">
-        <v>23</v>
-      </c>
-      <c r="L86" t="s">
-        <v>23</v>
-      </c>
-      <c r="M86" t="s">
-        <v>23</v>
-      </c>
-      <c r="N86" t="s">
-        <v>23</v>
-      </c>
-      <c r="O86" t="s">
-        <v>23</v>
-      </c>
-      <c r="P86" t="s">
-        <v>116</v>
       </c>
       <c r="Q86" t="s">
         <v>23</v>
@@ -8277,7 +8641,10 @@
         <v>23</v>
       </c>
       <c r="X86">
-        <v>705.43</v>
+        <v>530</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>23</v>
       </c>
       <c r="Z86">
         <v>1</v>
@@ -8303,7 +8670,7 @@
         <v>23</v>
       </c>
       <c r="F87" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G87" t="s">
         <v>23</v>
@@ -8333,7 +8700,7 @@
         <v>23</v>
       </c>
       <c r="P87" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q87" t="s">
         <v>23</v>
@@ -8357,7 +8724,10 @@
         <v>23</v>
       </c>
       <c r="X87">
-        <v>283.503</v>
+        <v>213</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>23</v>
       </c>
       <c r="Z87">
         <v>1</v>
@@ -8383,7 +8753,7 @@
         <v>23</v>
       </c>
       <c r="F88" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G88" t="s">
         <v>23</v>
@@ -8413,7 +8783,7 @@
         <v>23</v>
       </c>
       <c r="P88" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q88" t="s">
         <v>23</v>
@@ -8437,10 +8807,13 @@
         <v>23</v>
       </c>
       <c r="X88">
-        <v>79.3276</v>
+        <v>59.6</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>23</v>
       </c>
       <c r="Z88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA88">
         <v>5</v>
@@ -8463,7 +8836,7 @@
         <v>23</v>
       </c>
       <c r="F89" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G89" t="s">
         <v>23</v>
@@ -8493,7 +8866,7 @@
         <v>23</v>
       </c>
       <c r="P89" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q89" t="s">
         <v>23</v>
@@ -8517,7 +8890,10 @@
         <v>23</v>
       </c>
       <c r="X89">
-        <v>991.595</v>
+        <v>745</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>23</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8543,7 +8919,7 @@
         <v>23</v>
       </c>
       <c r="F90" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G90" t="s">
         <v>23</v>
@@ -8573,7 +8949,7 @@
         <v>23</v>
       </c>
       <c r="P90" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q90" t="s">
         <v>23</v>
@@ -8597,7 +8973,10 @@
         <v>23</v>
       </c>
       <c r="X90">
-        <v>1642.454</v>
+        <v>1234</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>23</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8623,7 +9002,7 @@
         <v>23</v>
       </c>
       <c r="F91" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G91" t="s">
         <v>23</v>
@@ -8653,7 +9032,7 @@
         <v>23</v>
       </c>
       <c r="P91" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q91" t="s">
         <v>23</v>
@@ -8677,7 +9056,10 @@
         <v>23</v>
       </c>
       <c r="X91">
-        <v>550.3685</v>
+        <v>413.5</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>23</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8703,7 +9085,7 @@
         <v>23</v>
       </c>
       <c r="F92" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G92" t="s">
         <v>23</v>
@@ -8733,7 +9115,7 @@
         <v>23</v>
       </c>
       <c r="P92" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q92" t="s">
         <v>23</v>
@@ -8757,7 +9139,10 @@
         <v>23</v>
       </c>
       <c r="X92">
-        <v>85.184</v>
+        <v>64</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>23</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8783,7 +9168,7 @@
         <v>23</v>
       </c>
       <c r="F93" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G93" t="s">
         <v>23</v>
@@ -8813,7 +9198,7 @@
         <v>23</v>
       </c>
       <c r="P93" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q93" t="s">
         <v>23</v>
@@ -8837,7 +9222,10 @@
         <v>23</v>
       </c>
       <c r="X93">
-        <v>480.491</v>
+        <v>361</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>23</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -8846,7 +9234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:24">
+    <row r="94" spans="1:27">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -8857,7 +9245,7 @@
         <v>23</v>
       </c>
       <c r="D94" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E94" t="s">
         <v>23</v>
@@ -8917,6 +9305,15 @@
         <v>23</v>
       </c>
       <c r="X94" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA94" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8937,7 +9334,7 @@
         <v>23</v>
       </c>
       <c r="F95" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G95" t="s">
         <v>23</v>
@@ -8967,7 +9364,7 @@
         <v>23</v>
       </c>
       <c r="P95" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q95" t="s">
         <v>23</v>
@@ -8991,10 +9388,13 @@
         <v>23</v>
       </c>
       <c r="X95">
-        <v>79.86</v>
+        <v>60</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>23</v>
       </c>
       <c r="Z95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA95">
         <v>1</v>
@@ -9071,10 +9471,13 @@
         <v>23</v>
       </c>
       <c r="X96">
-        <v>23.958</v>
+        <v>18</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>23</v>
       </c>
       <c r="Z96">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AA96">
         <v>1</v>
@@ -9097,7 +9500,7 @@
         <v>23</v>
       </c>
       <c r="F97" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G97" t="s">
         <v>23</v>
@@ -9127,7 +9530,7 @@
         <v>23</v>
       </c>
       <c r="P97" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q97" t="s">
         <v>23</v>
@@ -9151,7 +9554,10 @@
         <v>23</v>
       </c>
       <c r="X97">
-        <v>1068.1275</v>
+        <v>802.5</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>23</v>
       </c>
       <c r="Z97">
         <v>1</v>
@@ -9177,7 +9583,7 @@
         <v>23</v>
       </c>
       <c r="F98" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G98" t="s">
         <v>23</v>
@@ -9207,7 +9613,7 @@
         <v>23</v>
       </c>
       <c r="P98" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q98" t="s">
         <v>23</v>
@@ -9231,7 +9637,10 @@
         <v>23</v>
       </c>
       <c r="X98">
-        <v>1886.6925</v>
+        <v>1417.5</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>23</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9257,7 +9666,7 @@
         <v>23</v>
       </c>
       <c r="F99" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G99" t="s">
         <v>23</v>
@@ -9287,7 +9696,7 @@
         <v>23</v>
       </c>
       <c r="P99" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q99" t="s">
         <v>23</v>
@@ -9311,10 +9720,13 @@
         <v>23</v>
       </c>
       <c r="X99">
-        <v>87.51325</v>
+        <v>65.75</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>23</v>
       </c>
       <c r="Z99">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AA99">
         <v>1</v>
@@ -9337,7 +9749,7 @@
         <v>23</v>
       </c>
       <c r="F100" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G100" t="s">
         <v>23</v>
@@ -9367,7 +9779,7 @@
         <v>23</v>
       </c>
       <c r="P100" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q100" t="s">
         <v>23</v>
@@ -9391,7 +9803,10 @@
         <v>23</v>
       </c>
       <c r="X100">
-        <v>527.7415</v>
+        <v>396.5</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>23</v>
       </c>
       <c r="Z100">
         <v>1</v>
@@ -9417,19 +9832,19 @@
         <v>23</v>
       </c>
       <c r="F101" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G101" t="s">
         <v>23</v>
       </c>
       <c r="H101" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I101" t="s">
         <v>23</v>
       </c>
       <c r="J101" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K101" t="s">
         <v>23</v>
@@ -9447,7 +9862,7 @@
         <v>23</v>
       </c>
       <c r="P101" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q101" t="s">
         <v>23</v>
@@ -9471,7 +9886,10 @@
         <v>23</v>
       </c>
       <c r="X101">
-        <v>83.1875</v>
+        <v>62.5</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>23</v>
       </c>
       <c r="Z101">
         <v>1</v>
@@ -9497,7 +9915,7 @@
         <v>23</v>
       </c>
       <c r="F102" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G102" t="s">
         <v>23</v>
@@ -9527,7 +9945,7 @@
         <v>23</v>
       </c>
       <c r="P102" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q102" t="s">
         <v>23</v>
@@ -9551,7 +9969,10 @@
         <v>23</v>
       </c>
       <c r="X102">
-        <v>274.7184</v>
+        <v>206.4</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>23</v>
       </c>
       <c r="Z102">
         <v>0</v>
@@ -9577,7 +9998,7 @@
         <v>23</v>
       </c>
       <c r="F103" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G103" t="s">
         <v>23</v>
@@ -9607,7 +10028,7 @@
         <v>23</v>
       </c>
       <c r="P103" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q103" t="s">
         <v>23</v>
@@ -9631,7 +10052,10 @@
         <v>23</v>
       </c>
       <c r="X103">
-        <v>56.90025</v>
+        <v>42.75</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>23</v>
       </c>
       <c r="Z103">
         <v>1</v>
@@ -9657,7 +10081,7 @@
         <v>23</v>
       </c>
       <c r="F104" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G104" t="s">
         <v>23</v>
@@ -9687,7 +10111,7 @@
         <v>23</v>
       </c>
       <c r="P104" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q104" t="s">
         <v>23</v>
@@ -9711,7 +10135,10 @@
         <v>23</v>
       </c>
       <c r="X104">
-        <v>94.3679</v>
+        <v>70.9</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>23</v>
       </c>
       <c r="Z104">
         <v>1</v>
@@ -9737,37 +10164,37 @@
         <v>23</v>
       </c>
       <c r="F105" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G105" t="s">
         <v>23</v>
       </c>
       <c r="H105" t="s">
+        <v>118</v>
+      </c>
+      <c r="I105" t="s">
+        <v>23</v>
+      </c>
+      <c r="J105" t="s">
+        <v>118</v>
+      </c>
+      <c r="K105" t="s">
+        <v>23</v>
+      </c>
+      <c r="L105" t="s">
+        <v>23</v>
+      </c>
+      <c r="M105" t="s">
+        <v>23</v>
+      </c>
+      <c r="N105" t="s">
+        <v>23</v>
+      </c>
+      <c r="O105" t="s">
+        <v>23</v>
+      </c>
+      <c r="P105" t="s">
         <v>117</v>
-      </c>
-      <c r="I105" t="s">
-        <v>23</v>
-      </c>
-      <c r="J105" t="s">
-        <v>117</v>
-      </c>
-      <c r="K105" t="s">
-        <v>23</v>
-      </c>
-      <c r="L105" t="s">
-        <v>23</v>
-      </c>
-      <c r="M105" t="s">
-        <v>23</v>
-      </c>
-      <c r="N105" t="s">
-        <v>23</v>
-      </c>
-      <c r="O105" t="s">
-        <v>23</v>
-      </c>
-      <c r="P105" t="s">
-        <v>116</v>
       </c>
       <c r="Q105" t="s">
         <v>23</v>
@@ -9791,7 +10218,10 @@
         <v>23</v>
       </c>
       <c r="X105">
-        <v>527.7415</v>
+        <v>396.5</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>23</v>
       </c>
       <c r="Z105">
         <v>1</v>
@@ -9800,7 +10230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:24">
+    <row r="106" spans="1:27">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -9811,7 +10241,7 @@
         <v>23</v>
       </c>
       <c r="D106" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E106" t="s">
         <v>23</v>
@@ -9871,6 +10301,15 @@
         <v>23</v>
       </c>
       <c r="X106" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA106" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9891,7 +10330,7 @@
         <v>23</v>
       </c>
       <c r="F107" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G107" t="s">
         <v>23</v>
@@ -9921,7 +10360,7 @@
         <v>23</v>
       </c>
       <c r="P107" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q107" t="s">
         <v>23</v>
@@ -9945,13 +10384,16 @@
         <v>23</v>
       </c>
       <c r="X107">
-        <v>36.7356</v>
+        <v>27.6</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>23</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA107">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:27">
@@ -9971,7 +10413,7 @@
         <v>23</v>
       </c>
       <c r="F108" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G108" t="s">
         <v>23</v>
@@ -10001,7 +10443,7 @@
         <v>23</v>
       </c>
       <c r="P108" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q108" t="s">
         <v>23</v>
@@ -10025,13 +10467,16 @@
         <v>23</v>
       </c>
       <c r="X108">
-        <v>28.7496</v>
+        <v>21.6</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>23</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA108">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:27">
@@ -10105,7 +10550,10 @@
         <v>23</v>
       </c>
       <c r="X109">
-        <v>17.5692</v>
+        <v>13.2</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>23</v>
       </c>
       <c r="Z109">
         <v>0</v>
@@ -10131,7 +10579,7 @@
         <v>23</v>
       </c>
       <c r="F110" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G110" t="s">
         <v>23</v>
@@ -10161,7 +10609,7 @@
         <v>23</v>
       </c>
       <c r="P110" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q110" t="s">
         <v>23</v>
@@ -10185,7 +10633,10 @@
         <v>23</v>
       </c>
       <c r="X110">
-        <v>1896.675</v>
+        <v>1425</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>23</v>
       </c>
       <c r="Z110">
         <v>1</v>
@@ -10211,7 +10662,7 @@
         <v>23</v>
       </c>
       <c r="F111" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G111" t="s">
         <v>23</v>
@@ -10241,7 +10692,7 @@
         <v>23</v>
       </c>
       <c r="P111" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q111" t="s">
         <v>23</v>
@@ -10265,7 +10716,10 @@
         <v>23</v>
       </c>
       <c r="X111">
-        <v>32.908975</v>
+        <v>24.725</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>23</v>
       </c>
       <c r="Z111">
         <v>0</v>
@@ -10291,7 +10745,7 @@
         <v>23</v>
       </c>
       <c r="F112" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G112" t="s">
         <v>23</v>
@@ -10321,7 +10775,7 @@
         <v>23</v>
       </c>
       <c r="P112" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q112" t="s">
         <v>23</v>
@@ -10345,7 +10799,10 @@
         <v>23</v>
       </c>
       <c r="X112">
-        <v>102.81975</v>
+        <v>77.25</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>23</v>
       </c>
       <c r="Z112">
         <v>0</v>
@@ -10371,7 +10828,7 @@
         <v>23</v>
       </c>
       <c r="F113" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G113" t="s">
         <v>23</v>
@@ -10401,7 +10858,7 @@
         <v>23</v>
       </c>
       <c r="P113" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q113" t="s">
         <v>23</v>
@@ -10425,7 +10882,10 @@
         <v>23</v>
       </c>
       <c r="X113">
-        <v>85.0509</v>
+        <v>63.9</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>23</v>
       </c>
       <c r="Z113">
         <v>0</v>
@@ -10451,7 +10911,7 @@
         <v>23</v>
       </c>
       <c r="F114" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G114" t="s">
         <v>23</v>
@@ -10481,7 +10941,7 @@
         <v>23</v>
       </c>
       <c r="P114" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q114" t="s">
         <v>23</v>
@@ -10505,7 +10965,10 @@
         <v>23</v>
       </c>
       <c r="X114">
-        <v>13.278925</v>
+        <v>11.075</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>23</v>
       </c>
       <c r="Z114">
         <v>0</v>
@@ -10531,7 +10994,7 @@
         <v>23</v>
       </c>
       <c r="F115" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G115" t="s">
         <v>23</v>
@@ -10561,7 +11024,7 @@
         <v>23</v>
       </c>
       <c r="P115" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q115" t="s">
         <v>23</v>
@@ -10585,7 +11048,10 @@
         <v>23</v>
       </c>
       <c r="X115">
-        <v>14.777675</v>
+        <v>12.325</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>23</v>
       </c>
       <c r="Z115">
         <v>0</v>
@@ -10611,7 +11077,7 @@
         <v>23</v>
       </c>
       <c r="F116" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G116" t="s">
         <v>23</v>
@@ -10641,7 +11107,7 @@
         <v>23</v>
       </c>
       <c r="P116" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q116" t="s">
         <v>23</v>
@@ -10665,7 +11131,10 @@
         <v>23</v>
       </c>
       <c r="X116">
-        <v>393.3105</v>
+        <v>295.5</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>23</v>
       </c>
       <c r="Z116">
         <v>0</v>
@@ -10691,7 +11160,7 @@
         <v>23</v>
       </c>
       <c r="F117" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G117" t="s">
         <v>23</v>
@@ -10721,7 +11190,7 @@
         <v>23</v>
       </c>
       <c r="P117" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q117" t="s">
         <v>23</v>
@@ -10745,7 +11214,10 @@
         <v>23</v>
       </c>
       <c r="X117">
-        <v>305.4645</v>
+        <v>229.5</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>23</v>
       </c>
       <c r="Z117">
         <v>0</v>
@@ -10771,7 +11243,7 @@
         <v>23</v>
       </c>
       <c r="F118" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G118" t="s">
         <v>23</v>
@@ -10801,7 +11273,7 @@
         <v>23</v>
       </c>
       <c r="P118" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q118" t="s">
         <v>23</v>
@@ -10825,7 +11297,10 @@
         <v>23</v>
       </c>
       <c r="X118">
-        <v>473.1705</v>
+        <v>355.5</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>23</v>
       </c>
       <c r="Z118">
         <v>0</v>
@@ -10851,7 +11326,7 @@
         <v>23</v>
       </c>
       <c r="F119" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G119" t="s">
         <v>23</v>
@@ -10881,7 +11356,7 @@
         <v>23</v>
       </c>
       <c r="P119" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q119" t="s">
         <v>23</v>
@@ -10905,7 +11380,10 @@
         <v>23</v>
       </c>
       <c r="X119">
-        <v>149.7375</v>
+        <v>112.5</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>23</v>
       </c>
       <c r="Z119">
         <v>0</v>
@@ -10914,7 +11392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:27">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -10925,7 +11403,7 @@
         <v>23</v>
       </c>
       <c r="D120" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E120" t="s">
         <v>23</v>
@@ -10985,6 +11463,15 @@
         <v>23</v>
       </c>
       <c r="X120" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA120" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11005,7 +11492,7 @@
         <v>23</v>
       </c>
       <c r="F121" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G121" t="s">
         <v>23</v>
@@ -11035,7 +11522,7 @@
         <v>23</v>
       </c>
       <c r="P121" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q121" t="s">
         <v>23</v>
@@ -11059,10 +11546,13 @@
         <v>23</v>
       </c>
       <c r="X121">
-        <v>15.77235</v>
+        <v>11.85</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>23</v>
       </c>
       <c r="Z121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA121">
         <v>1</v>
@@ -11085,7 +11575,7 @@
         <v>23</v>
       </c>
       <c r="F122" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G122" t="s">
         <v>23</v>
@@ -11115,7 +11605,7 @@
         <v>23</v>
       </c>
       <c r="P122" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q122" t="s">
         <v>23</v>
@@ -11139,10 +11629,13 @@
         <v>23</v>
       </c>
       <c r="X122">
-        <v>4.3923</v>
+        <v>3.3</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>23</v>
       </c>
       <c r="Z122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA122">
         <v>1</v>
@@ -11165,7 +11658,7 @@
         <v>23</v>
       </c>
       <c r="F123" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G123" t="s">
         <v>23</v>
@@ -11195,7 +11688,7 @@
         <v>23</v>
       </c>
       <c r="P123" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q123" t="s">
         <v>23</v>
@@ -11219,10 +11712,13 @@
         <v>23</v>
       </c>
       <c r="X123">
-        <v>34.3398</v>
+        <v>25.8</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>23</v>
       </c>
       <c r="Z123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA123">
         <v>1</v>
@@ -11245,7 +11741,7 @@
         <v>23</v>
       </c>
       <c r="F124" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G124" t="s">
         <v>23</v>
@@ -11275,7 +11771,7 @@
         <v>23</v>
       </c>
       <c r="P124" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q124" t="s">
         <v>23</v>
@@ -11299,10 +11795,13 @@
         <v>23</v>
       </c>
       <c r="X124">
-        <v>41.1279</v>
+        <v>30.9</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>23</v>
       </c>
       <c r="Z124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA124">
         <v>1</v>
@@ -11325,7 +11824,7 @@
         <v>23</v>
       </c>
       <c r="F125" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G125" t="s">
         <v>23</v>
@@ -11355,7 +11854,7 @@
         <v>23</v>
       </c>
       <c r="P125" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q125" t="s">
         <v>23</v>
@@ -11379,10 +11878,13 @@
         <v>23</v>
       </c>
       <c r="X125">
-        <v>25.35555</v>
+        <v>19.05</v>
+      </c>
+      <c r="Y125" t="s">
+        <v>23</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA125">
         <v>1</v>
@@ -11405,7 +11907,7 @@
         <v>23</v>
       </c>
       <c r="F126" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G126" t="s">
         <v>23</v>
@@ -11435,7 +11937,7 @@
         <v>23</v>
       </c>
       <c r="P126" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q126" t="s">
         <v>23</v>
@@ -11459,10 +11961,13 @@
         <v>23</v>
       </c>
       <c r="X126">
-        <v>4.7916</v>
+        <v>3.6</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>23</v>
       </c>
       <c r="Z126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA126">
         <v>1</v>
@@ -11485,7 +11990,7 @@
         <v>23</v>
       </c>
       <c r="F127" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G127" t="s">
         <v>23</v>
@@ -11515,7 +12020,7 @@
         <v>23</v>
       </c>
       <c r="P127" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q127" t="s">
         <v>23</v>
@@ -11539,7 +12044,10 @@
         <v>23</v>
       </c>
       <c r="X127">
-        <v>127.776</v>
+        <v>96</v>
+      </c>
+      <c r="Y127" t="s">
+        <v>23</v>
       </c>
       <c r="Z127">
         <v>0</v>
@@ -11565,7 +12073,7 @@
         <v>23</v>
       </c>
       <c r="F128" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G128" t="s">
         <v>23</v>
@@ -11595,7 +12103,7 @@
         <v>23</v>
       </c>
       <c r="P128" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q128" t="s">
         <v>23</v>
@@ -11619,10 +12127,13 @@
         <v>23</v>
       </c>
       <c r="X128">
-        <v>239.58</v>
+        <v>180</v>
+      </c>
+      <c r="Y128" t="s">
+        <v>23</v>
       </c>
       <c r="Z128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA128">
         <v>1</v>
@@ -11640,8 +12151,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/data/price_data.xlsx
+++ b/data/price_data.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="价格数据" sheetId="1" r:id="rId1"/>
-    <sheet name="整合数据" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="价格数据" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="整合数据" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="157">
   <si>
     <t>序号</t>
   </si>
@@ -90,7 +77,7 @@
     <t>材料费4</t>
   </si>
   <si>
-    <t>含税价格/单位</t>
+    <t>税前单价</t>
   </si>
   <si>
     <t>套餐</t>
@@ -367,9 +354,6 @@
   </si>
   <si>
     <t>浴室瓷砖（标准）</t>
-  </si>
-  <si>
-    <t>浴室瓷砖（小面积）</t>
   </si>
   <si>
     <t>卫浴三件套安装</t>
@@ -507,368 +491,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -876,310 +517,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1505,20 +860,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C94" workbookViewId="0">
-      <selection activeCell="Z110" sqref="Z110"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="U119" sqref="U119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="9"/>
   <cols>
     <col min="6" max="6" width="35.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1681,7 +1035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1764,7 +1118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1835,7 +1189,7 @@
         <v>23</v>
       </c>
       <c r="X4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y4" t="s">
         <v>23</v>
@@ -1847,7 +1201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1930,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2013,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2096,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2179,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2262,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2345,7 +1699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2428,7 +1782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2511,7 +1865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2594,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -2677,7 +2031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -2760,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -2843,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -2926,7 +2280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -3009,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -3092,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3175,7 +2529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -3258,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -3341,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -3424,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -3507,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -3590,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3673,7 +3027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
@@ -3756,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
@@ -3839,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
@@ -3922,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
@@ -4005,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
@@ -4088,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>26</v>
       </c>
@@ -4171,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -4254,7 +3608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -4337,7 +3691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>27</v>
       </c>
@@ -4420,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>28</v>
       </c>
@@ -4503,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>29</v>
       </c>
@@ -4586,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>30</v>
       </c>
@@ -4669,7 +4023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>31</v>
       </c>
@@ -4752,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>32</v>
       </c>
@@ -4835,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>33</v>
       </c>
@@ -4918,7 +4272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>34</v>
       </c>
@@ -5001,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>35</v>
       </c>
@@ -5084,7 +4438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>36</v>
       </c>
@@ -5167,7 +4521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -5250,7 +4604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -5333,7 +4687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>37</v>
       </c>
@@ -5416,7 +4770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>38</v>
       </c>
@@ -5499,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>39</v>
       </c>
@@ -5582,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>40</v>
       </c>
@@ -5665,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -5748,7 +5102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>41</v>
       </c>
@@ -5831,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>42</v>
       </c>
@@ -5914,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>43</v>
       </c>
@@ -5997,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>44</v>
       </c>
@@ -6080,7 +5434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -6163,7 +5517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -6246,7 +5600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>45</v>
       </c>
@@ -6329,7 +5683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>46</v>
       </c>
@@ -6412,7 +5766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>47</v>
       </c>
@@ -6495,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>48</v>
       </c>
@@ -6578,7 +5932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>49</v>
       </c>
@@ -6661,7 +6015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>50</v>
       </c>
@@ -6744,7 +6098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>51</v>
       </c>
@@ -6827,7 +6181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -6910,7 +6264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>52</v>
       </c>
@@ -6993,7 +6347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>53</v>
       </c>
@@ -7076,7 +6430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>54</v>
       </c>
@@ -7153,13 +6507,13 @@
         <v>23</v>
       </c>
       <c r="Z68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>55</v>
       </c>
@@ -7242,7 +6596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -7325,7 +6679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -7408,7 +6762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>56</v>
       </c>
@@ -7491,7 +6845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>57</v>
       </c>
@@ -7574,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>58</v>
       </c>
@@ -7657,7 +7011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>59</v>
       </c>
@@ -7740,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -7823,7 +7177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -7906,7 +7260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>60</v>
       </c>
@@ -7989,7 +7343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>61</v>
       </c>
@@ -8072,7 +7426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>62</v>
       </c>
@@ -8155,7 +7509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>63</v>
       </c>
@@ -8238,7 +7592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>64</v>
       </c>
@@ -8285,7 +7639,7 @@
         <v>23</v>
       </c>
       <c r="P82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q82" t="s">
         <v>23</v>
@@ -8321,7 +7675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>65</v>
       </c>
@@ -8338,7 +7692,7 @@
         <v>23</v>
       </c>
       <c r="F83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G83" t="s">
         <v>23</v>
@@ -8368,7 +7722,7 @@
         <v>23</v>
       </c>
       <c r="P83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q83" t="s">
         <v>23</v>
@@ -8404,7 +7758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>66</v>
       </c>
@@ -8421,7 +7775,7 @@
         <v>23</v>
       </c>
       <c r="F84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G84" t="s">
         <v>23</v>
@@ -8451,7 +7805,7 @@
         <v>23</v>
       </c>
       <c r="P84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q84" t="s">
         <v>23</v>
@@ -8487,7 +7841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>67</v>
       </c>
@@ -8504,7 +7858,7 @@
         <v>23</v>
       </c>
       <c r="F85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G85" t="s">
         <v>23</v>
@@ -8534,7 +7888,7 @@
         <v>23</v>
       </c>
       <c r="P85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q85" t="s">
         <v>23</v>
@@ -8570,7 +7924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>68</v>
       </c>
@@ -8587,19 +7941,19 @@
         <v>23</v>
       </c>
       <c r="F86" t="s">
+        <v>116</v>
+      </c>
+      <c r="G86" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" t="s">
         <v>117</v>
       </c>
-      <c r="G86" t="s">
-        <v>23</v>
-      </c>
-      <c r="H86" t="s">
-        <v>118</v>
-      </c>
       <c r="I86" t="s">
         <v>23</v>
       </c>
       <c r="J86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K86" t="s">
         <v>23</v>
@@ -8617,7 +7971,7 @@
         <v>23</v>
       </c>
       <c r="P86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q86" t="s">
         <v>23</v>
@@ -8653,7 +8007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>69</v>
       </c>
@@ -8670,7 +8024,7 @@
         <v>23</v>
       </c>
       <c r="F87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G87" t="s">
         <v>23</v>
@@ -8700,7 +8054,7 @@
         <v>23</v>
       </c>
       <c r="P87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q87" t="s">
         <v>23</v>
@@ -8736,7 +8090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>70</v>
       </c>
@@ -8753,7 +8107,7 @@
         <v>23</v>
       </c>
       <c r="F88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G88" t="s">
         <v>23</v>
@@ -8783,7 +8137,7 @@
         <v>23</v>
       </c>
       <c r="P88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q88" t="s">
         <v>23</v>
@@ -8813,13 +8167,13 @@
         <v>23</v>
       </c>
       <c r="Z88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA88">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>71</v>
       </c>
@@ -8836,7 +8190,7 @@
         <v>23</v>
       </c>
       <c r="F89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G89" t="s">
         <v>23</v>
@@ -8866,7 +8220,7 @@
         <v>23</v>
       </c>
       <c r="P89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q89" t="s">
         <v>23</v>
@@ -8902,7 +8256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>72</v>
       </c>
@@ -8919,7 +8273,7 @@
         <v>23</v>
       </c>
       <c r="F90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G90" t="s">
         <v>23</v>
@@ -8949,7 +8303,7 @@
         <v>23</v>
       </c>
       <c r="P90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q90" t="s">
         <v>23</v>
@@ -8985,7 +8339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>73</v>
       </c>
@@ -9002,7 +8356,7 @@
         <v>23</v>
       </c>
       <c r="F91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G91" t="s">
         <v>23</v>
@@ -9032,7 +8386,7 @@
         <v>23</v>
       </c>
       <c r="P91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q91" t="s">
         <v>23</v>
@@ -9068,7 +8422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>74</v>
       </c>
@@ -9085,7 +8439,7 @@
         <v>23</v>
       </c>
       <c r="F92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G92" t="s">
         <v>23</v>
@@ -9115,7 +8469,7 @@
         <v>23</v>
       </c>
       <c r="P92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q92" t="s">
         <v>23</v>
@@ -9151,7 +8505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>75</v>
       </c>
@@ -9168,7 +8522,7 @@
         <v>23</v>
       </c>
       <c r="F93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G93" t="s">
         <v>23</v>
@@ -9198,7 +8552,7 @@
         <v>23</v>
       </c>
       <c r="P93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q93" t="s">
         <v>23</v>
@@ -9234,7 +8588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -9245,7 +8599,7 @@
         <v>23</v>
       </c>
       <c r="D94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E94" t="s">
         <v>23</v>
@@ -9317,7 +8671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>76</v>
       </c>
@@ -9334,7 +8688,7 @@
         <v>23</v>
       </c>
       <c r="F95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G95" t="s">
         <v>23</v>
@@ -9364,7 +8718,7 @@
         <v>23</v>
       </c>
       <c r="P95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q95" t="s">
         <v>23</v>
@@ -9394,13 +8748,13 @@
         <v>23</v>
       </c>
       <c r="Z95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>77</v>
       </c>
@@ -9477,13 +8831,13 @@
         <v>23</v>
       </c>
       <c r="Z96">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>78</v>
       </c>
@@ -9500,7 +8854,7 @@
         <v>23</v>
       </c>
       <c r="F97" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G97" t="s">
         <v>23</v>
@@ -9530,7 +8884,7 @@
         <v>23</v>
       </c>
       <c r="P97" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q97" t="s">
         <v>23</v>
@@ -9566,7 +8920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>79</v>
       </c>
@@ -9583,7 +8937,7 @@
         <v>23</v>
       </c>
       <c r="F98" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G98" t="s">
         <v>23</v>
@@ -9613,7 +8967,7 @@
         <v>23</v>
       </c>
       <c r="P98" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q98" t="s">
         <v>23</v>
@@ -9649,7 +9003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>80</v>
       </c>
@@ -9666,7 +9020,7 @@
         <v>23</v>
       </c>
       <c r="F99" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G99" t="s">
         <v>23</v>
@@ -9696,7 +9050,7 @@
         <v>23</v>
       </c>
       <c r="P99" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q99" t="s">
         <v>23</v>
@@ -9726,13 +9080,13 @@
         <v>23</v>
       </c>
       <c r="Z99">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>81</v>
       </c>
@@ -9749,7 +9103,7 @@
         <v>23</v>
       </c>
       <c r="F100" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G100" t="s">
         <v>23</v>
@@ -9779,7 +9133,7 @@
         <v>23</v>
       </c>
       <c r="P100" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q100" t="s">
         <v>23</v>
@@ -9815,7 +9169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>82</v>
       </c>
@@ -9832,19 +9186,19 @@
         <v>23</v>
       </c>
       <c r="F101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G101" t="s">
         <v>23</v>
       </c>
       <c r="H101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I101" t="s">
         <v>23</v>
       </c>
       <c r="J101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K101" t="s">
         <v>23</v>
@@ -9862,7 +9216,7 @@
         <v>23</v>
       </c>
       <c r="P101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q101" t="s">
         <v>23</v>
@@ -9898,7 +9252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>83</v>
       </c>
@@ -9915,7 +9269,7 @@
         <v>23</v>
       </c>
       <c r="F102" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G102" t="s">
         <v>23</v>
@@ -9945,7 +9299,7 @@
         <v>23</v>
       </c>
       <c r="P102" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q102" t="s">
         <v>23</v>
@@ -9981,7 +9335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>84</v>
       </c>
@@ -9998,7 +9352,7 @@
         <v>23</v>
       </c>
       <c r="F103" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G103" t="s">
         <v>23</v>
@@ -10028,7 +9382,7 @@
         <v>23</v>
       </c>
       <c r="P103" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q103" t="s">
         <v>23</v>
@@ -10064,7 +9418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>85</v>
       </c>
@@ -10081,7 +9435,7 @@
         <v>23</v>
       </c>
       <c r="F104" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G104" t="s">
         <v>23</v>
@@ -10111,7 +9465,7 @@
         <v>23</v>
       </c>
       <c r="P104" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q104" t="s">
         <v>23</v>
@@ -10147,7 +9501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>86</v>
       </c>
@@ -10164,19 +9518,19 @@
         <v>23</v>
       </c>
       <c r="F105" t="s">
+        <v>116</v>
+      </c>
+      <c r="G105" t="s">
+        <v>23</v>
+      </c>
+      <c r="H105" t="s">
         <v>117</v>
       </c>
-      <c r="G105" t="s">
-        <v>23</v>
-      </c>
-      <c r="H105" t="s">
-        <v>118</v>
-      </c>
       <c r="I105" t="s">
         <v>23</v>
       </c>
       <c r="J105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K105" t="s">
         <v>23</v>
@@ -10194,7 +9548,7 @@
         <v>23</v>
       </c>
       <c r="P105" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q105" t="s">
         <v>23</v>
@@ -10230,7 +9584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -10241,7 +9595,7 @@
         <v>23</v>
       </c>
       <c r="D106" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E106" t="s">
         <v>23</v>
@@ -10313,7 +9667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>87</v>
       </c>
@@ -10330,7 +9684,7 @@
         <v>23</v>
       </c>
       <c r="F107" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G107" t="s">
         <v>23</v>
@@ -10360,7 +9714,7 @@
         <v>23</v>
       </c>
       <c r="P107" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q107" t="s">
         <v>23</v>
@@ -10396,7 +9750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>88</v>
       </c>
@@ -10413,7 +9767,7 @@
         <v>23</v>
       </c>
       <c r="F108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G108" t="s">
         <v>23</v>
@@ -10443,7 +9797,7 @@
         <v>23</v>
       </c>
       <c r="P108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q108" t="s">
         <v>23</v>
@@ -10479,7 +9833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>89</v>
       </c>
@@ -10562,7 +9916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>90</v>
       </c>
@@ -10579,7 +9933,7 @@
         <v>23</v>
       </c>
       <c r="F110" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G110" t="s">
         <v>23</v>
@@ -10609,7 +9963,7 @@
         <v>23</v>
       </c>
       <c r="P110" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q110" t="s">
         <v>23</v>
@@ -10645,7 +9999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>91</v>
       </c>
@@ -10662,7 +10016,7 @@
         <v>23</v>
       </c>
       <c r="F111" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G111" t="s">
         <v>23</v>
@@ -10692,7 +10046,7 @@
         <v>23</v>
       </c>
       <c r="P111" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q111" t="s">
         <v>23</v>
@@ -10728,7 +10082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>92</v>
       </c>
@@ -10745,7 +10099,7 @@
         <v>23</v>
       </c>
       <c r="F112" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G112" t="s">
         <v>23</v>
@@ -10775,7 +10129,7 @@
         <v>23</v>
       </c>
       <c r="P112" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q112" t="s">
         <v>23</v>
@@ -10811,7 +10165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>93</v>
       </c>
@@ -10828,7 +10182,7 @@
         <v>23</v>
       </c>
       <c r="F113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G113" t="s">
         <v>23</v>
@@ -10858,7 +10212,7 @@
         <v>23</v>
       </c>
       <c r="P113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q113" t="s">
         <v>23</v>
@@ -10894,7 +10248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>94</v>
       </c>
@@ -10911,7 +10265,7 @@
         <v>23</v>
       </c>
       <c r="F114" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G114" t="s">
         <v>23</v>
@@ -10941,7 +10295,7 @@
         <v>23</v>
       </c>
       <c r="P114" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q114" t="s">
         <v>23</v>
@@ -10977,7 +10331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>95</v>
       </c>
@@ -10994,7 +10348,7 @@
         <v>23</v>
       </c>
       <c r="F115" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G115" t="s">
         <v>23</v>
@@ -11024,7 +10378,7 @@
         <v>23</v>
       </c>
       <c r="P115" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q115" t="s">
         <v>23</v>
@@ -11060,7 +10414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>96</v>
       </c>
@@ -11077,7 +10431,7 @@
         <v>23</v>
       </c>
       <c r="F116" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G116" t="s">
         <v>23</v>
@@ -11107,7 +10461,7 @@
         <v>23</v>
       </c>
       <c r="P116" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q116" t="s">
         <v>23</v>
@@ -11143,7 +10497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>97</v>
       </c>
@@ -11160,7 +10514,7 @@
         <v>23</v>
       </c>
       <c r="F117" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G117" t="s">
         <v>23</v>
@@ -11190,7 +10544,7 @@
         <v>23</v>
       </c>
       <c r="P117" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q117" t="s">
         <v>23</v>
@@ -11226,7 +10580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>98</v>
       </c>
@@ -11243,7 +10597,7 @@
         <v>23</v>
       </c>
       <c r="F118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G118" t="s">
         <v>23</v>
@@ -11273,7 +10627,7 @@
         <v>23</v>
       </c>
       <c r="P118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q118" t="s">
         <v>23</v>
@@ -11309,7 +10663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>99</v>
       </c>
@@ -11326,7 +10680,7 @@
         <v>23</v>
       </c>
       <c r="F119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G119" t="s">
         <v>23</v>
@@ -11356,7 +10710,7 @@
         <v>23</v>
       </c>
       <c r="P119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q119" t="s">
         <v>23</v>
@@ -11392,7 +10746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -11403,7 +10757,7 @@
         <v>23</v>
       </c>
       <c r="D120" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E120" t="s">
         <v>23</v>
@@ -11475,7 +10829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>100</v>
       </c>
@@ -11492,7 +10846,7 @@
         <v>23</v>
       </c>
       <c r="F121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G121" t="s">
         <v>23</v>
@@ -11522,7 +10876,7 @@
         <v>23</v>
       </c>
       <c r="P121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q121" t="s">
         <v>23</v>
@@ -11558,7 +10912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>101</v>
       </c>
@@ -11575,7 +10929,7 @@
         <v>23</v>
       </c>
       <c r="F122" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G122" t="s">
         <v>23</v>
@@ -11605,7 +10959,7 @@
         <v>23</v>
       </c>
       <c r="P122" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q122" t="s">
         <v>23</v>
@@ -11641,7 +10995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>102</v>
       </c>
@@ -11658,7 +11012,7 @@
         <v>23</v>
       </c>
       <c r="F123" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G123" t="s">
         <v>23</v>
@@ -11688,7 +11042,7 @@
         <v>23</v>
       </c>
       <c r="P123" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q123" t="s">
         <v>23</v>
@@ -11724,7 +11078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:27">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>103</v>
       </c>
@@ -11741,7 +11095,7 @@
         <v>23</v>
       </c>
       <c r="F124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G124" t="s">
         <v>23</v>
@@ -11771,7 +11125,7 @@
         <v>23</v>
       </c>
       <c r="P124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q124" t="s">
         <v>23</v>
@@ -11807,7 +11161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>104</v>
       </c>
@@ -11824,7 +11178,7 @@
         <v>23</v>
       </c>
       <c r="F125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G125" t="s">
         <v>23</v>
@@ -11854,7 +11208,7 @@
         <v>23</v>
       </c>
       <c r="P125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q125" t="s">
         <v>23</v>
@@ -11890,7 +11244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:27">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>105</v>
       </c>
@@ -11907,7 +11261,7 @@
         <v>23</v>
       </c>
       <c r="F126" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G126" t="s">
         <v>23</v>
@@ -11937,7 +11291,7 @@
         <v>23</v>
       </c>
       <c r="P126" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q126" t="s">
         <v>23</v>
@@ -11973,7 +11327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:27">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>106</v>
       </c>
@@ -11990,7 +11344,7 @@
         <v>23</v>
       </c>
       <c r="F127" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G127" t="s">
         <v>23</v>
@@ -12020,7 +11374,7 @@
         <v>23</v>
       </c>
       <c r="P127" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q127" t="s">
         <v>23</v>
@@ -12056,7 +11410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:27">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>107</v>
       </c>
@@ -12073,7 +11427,7 @@
         <v>23</v>
       </c>
       <c r="F128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G128" t="s">
         <v>23</v>
@@ -12103,7 +11457,7 @@
         <v>23</v>
       </c>
       <c r="P128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q128" t="s">
         <v>23</v>
@@ -12141,27 +11495,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="9"/>
   <cols>
     <col min="6" max="6" width="25.4285714285714" customWidth="1"/>
     <col min="24" max="24" width="17.4285714285714" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/price_data.xlsx
+++ b/data/price_data.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="价格数据" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="整合数据" state="visible" r:id="rId5"/>
+    <sheet name="价格数据" sheetId="1" r:id="rId1"/>
+    <sheet name="整合数据" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -491,25 +504,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -517,24 +873,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -860,19 +1502,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AA128"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="U119" sqref="U119"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="35.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -952,7 +1595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1035,7 +1678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1118,7 +1761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1201,7 +1844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1284,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1367,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1450,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1533,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1616,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1699,7 +2342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1782,7 +2425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1865,7 +2508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1948,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>10</v>
       </c>
@@ -2031,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>11</v>
       </c>
@@ -2114,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>12</v>
       </c>
@@ -2197,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>13</v>
       </c>
@@ -2280,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>14</v>
       </c>
@@ -2363,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>15</v>
       </c>
@@ -2446,7 +3089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2529,7 +3172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>16</v>
       </c>
@@ -2612,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>17</v>
       </c>
@@ -2695,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>18</v>
       </c>
@@ -2778,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>19</v>
       </c>
@@ -2861,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>20</v>
       </c>
@@ -2944,7 +3587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3027,7 +3670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>21</v>
       </c>
@@ -3110,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>22</v>
       </c>
@@ -3193,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>23</v>
       </c>
@@ -3276,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>24</v>
       </c>
@@ -3359,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>25</v>
       </c>
@@ -3442,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>26</v>
       </c>
@@ -3525,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -3608,7 +4251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -3691,7 +4334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>27</v>
       </c>
@@ -3774,7 +4417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>28</v>
       </c>
@@ -3857,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>29</v>
       </c>
@@ -3940,7 +4583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>30</v>
       </c>
@@ -4023,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>31</v>
       </c>
@@ -4106,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>32</v>
       </c>
@@ -4189,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>33</v>
       </c>
@@ -4272,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>34</v>
       </c>
@@ -4355,7 +4998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>35</v>
       </c>
@@ -4438,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>36</v>
       </c>
@@ -4521,7 +5164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -4604,7 +5247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -4687,7 +5330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>37</v>
       </c>
@@ -4770,7 +5413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>38</v>
       </c>
@@ -4853,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>39</v>
       </c>
@@ -4936,7 +5579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>40</v>
       </c>
@@ -5019,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -5102,7 +5745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>41</v>
       </c>
@@ -5185,7 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>42</v>
       </c>
@@ -5268,7 +5911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>43</v>
       </c>
@@ -5351,7 +5994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>44</v>
       </c>
@@ -5434,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -5517,7 +6160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -5600,7 +6243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>45</v>
       </c>
@@ -5683,7 +6326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>46</v>
       </c>
@@ -5766,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>47</v>
       </c>
@@ -5849,7 +6492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>48</v>
       </c>
@@ -5932,7 +6575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>49</v>
       </c>
@@ -6015,7 +6658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>50</v>
       </c>
@@ -6098,7 +6741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>51</v>
       </c>
@@ -6181,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -6264,7 +6907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>52</v>
       </c>
@@ -6347,7 +6990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>53</v>
       </c>
@@ -6430,7 +7073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>54</v>
       </c>
@@ -6513,7 +7156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>55</v>
       </c>
@@ -6596,7 +7239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -6679,7 +7322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -6762,7 +7405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>56</v>
       </c>
@@ -6845,7 +7488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>57</v>
       </c>
@@ -6928,7 +7571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>58</v>
       </c>
@@ -7011,7 +7654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>59</v>
       </c>
@@ -7094,7 +7737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -7177,7 +7820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -7260,7 +7903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>60</v>
       </c>
@@ -7343,7 +7986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>61</v>
       </c>
@@ -7426,7 +8069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>62</v>
       </c>
@@ -7509,7 +8152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>63</v>
       </c>
@@ -7592,7 +8235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>64</v>
       </c>
@@ -7675,7 +8318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>65</v>
       </c>
@@ -7758,7 +8401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>66</v>
       </c>
@@ -7841,7 +8484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>67</v>
       </c>
@@ -7924,7 +8567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>68</v>
       </c>
@@ -8007,7 +8650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>69</v>
       </c>
@@ -8090,7 +8733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>70</v>
       </c>
@@ -8173,7 +8816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>71</v>
       </c>
@@ -8256,7 +8899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>72</v>
       </c>
@@ -8339,7 +8982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>73</v>
       </c>
@@ -8422,7 +9065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>74</v>
       </c>
@@ -8505,7 +9148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>75</v>
       </c>
@@ -8588,7 +9231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -8671,7 +9314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>76</v>
       </c>
@@ -8754,7 +9397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>77</v>
       </c>
@@ -8837,7 +9480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>78</v>
       </c>
@@ -8920,7 +9563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>79</v>
       </c>
@@ -9003,7 +9646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>80</v>
       </c>
@@ -9086,7 +9729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>81</v>
       </c>
@@ -9169,7 +9812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>82</v>
       </c>
@@ -9252,7 +9895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>83</v>
       </c>
@@ -9335,7 +9978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>84</v>
       </c>
@@ -9418,7 +10061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>85</v>
       </c>
@@ -9501,7 +10144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>86</v>
       </c>
@@ -9584,7 +10227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -9667,7 +10310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>87</v>
       </c>
@@ -9750,7 +10393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>88</v>
       </c>
@@ -9833,7 +10476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>89</v>
       </c>
@@ -9916,7 +10559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>90</v>
       </c>
@@ -9999,7 +10642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>91</v>
       </c>
@@ -10082,7 +10725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>92</v>
       </c>
@@ -10165,7 +10808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>93</v>
       </c>
@@ -10248,7 +10891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>94</v>
       </c>
@@ -10331,7 +10974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>95</v>
       </c>
@@ -10414,7 +11057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>96</v>
       </c>
@@ -10497,7 +11140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>97</v>
       </c>
@@ -10580,7 +11223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>98</v>
       </c>
@@ -10663,7 +11306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>99</v>
       </c>
@@ -10746,7 +11389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -10829,7 +11472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>100</v>
       </c>
@@ -10912,7 +11555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>101</v>
       </c>
@@ -10995,7 +11638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>102</v>
       </c>
@@ -11078,7 +11721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>103</v>
       </c>
@@ -11161,7 +11804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>104</v>
       </c>
@@ -11244,7 +11887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>105</v>
       </c>
@@ -11327,7 +11970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>106</v>
       </c>
@@ -11410,7 +12053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>107</v>
       </c>
@@ -11495,24 +12138,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="25.4285714285714" customWidth="1"/>
     <col min="24" max="24" width="17.4285714285714" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/price_data.xlsx
+++ b/data/price_data.xlsx
@@ -1,29 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="价格数据" sheetId="1" r:id="rId1"/>
-    <sheet name="整合数据" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="价格数据" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="整合数据" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -504,368 +491,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -873,310 +517,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1502,20 +860,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="9"/>
   <cols>
     <col min="6" max="6" width="35.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1595,7 +952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1678,7 +1035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1761,7 +1118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1814,7 +1171,7 @@
         <v>23</v>
       </c>
       <c r="R4">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="S4">
         <v>21</v>
@@ -1832,7 +1189,7 @@
         <v>23</v>
       </c>
       <c r="X4">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
         <v>23</v>
@@ -1844,7 +1201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1927,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2010,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2093,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2176,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2259,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2342,7 +1699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2425,7 +1782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2508,7 +1865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2591,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -2674,7 +2031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -2757,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -2840,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -2923,7 +2280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -3006,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -3089,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3172,7 +2529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -3255,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -3338,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -3421,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -3504,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -3587,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3670,7 +3027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
@@ -3753,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
@@ -3836,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
@@ -3919,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
@@ -4002,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
@@ -4085,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>26</v>
       </c>
@@ -4168,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -4251,7 +3608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -4334,7 +3691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>27</v>
       </c>
@@ -4417,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>28</v>
       </c>
@@ -4488,7 +3845,7 @@
         <v>23</v>
       </c>
       <c r="X36">
-        <v>23.55</v>
+        <v>23.549999999999997</v>
       </c>
       <c r="Y36" t="s">
         <v>23</v>
@@ -4500,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>29</v>
       </c>
@@ -4583,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>30</v>
       </c>
@@ -4654,7 +4011,7 @@
         <v>23</v>
       </c>
       <c r="X38">
-        <v>15.3</v>
+        <v>15.299999999999999</v>
       </c>
       <c r="Y38" t="s">
         <v>23</v>
@@ -4666,7 +4023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>31</v>
       </c>
@@ -4749,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>32</v>
       </c>
@@ -4820,7 +4177,7 @@
         <v>23</v>
       </c>
       <c r="X40">
-        <v>7.38</v>
+        <v>7.380000000000001</v>
       </c>
       <c r="Y40" t="s">
         <v>23</v>
@@ -4832,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>33</v>
       </c>
@@ -4915,7 +4272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>34</v>
       </c>
@@ -4998,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>35</v>
       </c>
@@ -5069,7 +4426,7 @@
         <v>23</v>
       </c>
       <c r="X43">
-        <v>7.86</v>
+        <v>7.859999999999999</v>
       </c>
       <c r="Y43" t="s">
         <v>23</v>
@@ -5081,7 +4438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>36</v>
       </c>
@@ -5152,7 +4509,7 @@
         <v>23</v>
       </c>
       <c r="X44">
-        <v>5.94</v>
+        <v>5.9399999999999995</v>
       </c>
       <c r="Y44" t="s">
         <v>23</v>
@@ -5164,7 +4521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -5247,7 +4604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -5330,7 +4687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>37</v>
       </c>
@@ -5413,7 +4770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>38</v>
       </c>
@@ -5496,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>39</v>
       </c>
@@ -5579,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>40</v>
       </c>
@@ -5662,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -5745,7 +5102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>41</v>
       </c>
@@ -5828,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>42</v>
       </c>
@@ -5911,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>43</v>
       </c>
@@ -5994,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>44</v>
       </c>
@@ -6077,7 +5434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -6160,7 +5517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -6243,7 +5600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>45</v>
       </c>
@@ -6326,7 +5683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>46</v>
       </c>
@@ -6409,7 +5766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>47</v>
       </c>
@@ -6492,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>48</v>
       </c>
@@ -6575,7 +5932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>49</v>
       </c>
@@ -6658,7 +6015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>50</v>
       </c>
@@ -6741,7 +6098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>51</v>
       </c>
@@ -6824,7 +6181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -6907,7 +6264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>52</v>
       </c>
@@ -6990,7 +6347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>53</v>
       </c>
@@ -7073,7 +6430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>54</v>
       </c>
@@ -7156,7 +6513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>55</v>
       </c>
@@ -7239,7 +6596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -7322,7 +6679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -7405,7 +6762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>56</v>
       </c>
@@ -7488,7 +6845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>57</v>
       </c>
@@ -7571,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>58</v>
       </c>
@@ -7654,7 +7011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>59</v>
       </c>
@@ -7737,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -7820,7 +7177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -7903,7 +7260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>60</v>
       </c>
@@ -7986,7 +7343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>61</v>
       </c>
@@ -8069,7 +7426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>62</v>
       </c>
@@ -8152,7 +7509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>63</v>
       </c>
@@ -8235,7 +7592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>64</v>
       </c>
@@ -8318,7 +7675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>65</v>
       </c>
@@ -8401,7 +7758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>66</v>
       </c>
@@ -8484,7 +7841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>67</v>
       </c>
@@ -8567,7 +7924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>68</v>
       </c>
@@ -8650,7 +8007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>69</v>
       </c>
@@ -8733,7 +8090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>70</v>
       </c>
@@ -8816,7 +8173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>71</v>
       </c>
@@ -8899,7 +8256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>72</v>
       </c>
@@ -8982,7 +8339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>73</v>
       </c>
@@ -9065,7 +8422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>74</v>
       </c>
@@ -9148,7 +8505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>75</v>
       </c>
@@ -9231,7 +8588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -9314,7 +8671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>76</v>
       </c>
@@ -9397,7 +8754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>77</v>
       </c>
@@ -9480,7 +8837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>78</v>
       </c>
@@ -9563,7 +8920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>79</v>
       </c>
@@ -9646,7 +9003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>80</v>
       </c>
@@ -9729,7 +9086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>81</v>
       </c>
@@ -9812,7 +9169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>82</v>
       </c>
@@ -9895,7 +9252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>83</v>
       </c>
@@ -9978,7 +9335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>84</v>
       </c>
@@ -10061,7 +9418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>85</v>
       </c>
@@ -10144,7 +9501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>86</v>
       </c>
@@ -10227,7 +9584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -10310,7 +9667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>87</v>
       </c>
@@ -10393,7 +9750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>88</v>
       </c>
@@ -10476,7 +9833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>89</v>
       </c>
@@ -10559,7 +9916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>90</v>
       </c>
@@ -10642,7 +9999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>91</v>
       </c>
@@ -10725,7 +10082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>92</v>
       </c>
@@ -10808,7 +10165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>93</v>
       </c>
@@ -10891,7 +10248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>94</v>
       </c>
@@ -10974,7 +10331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>95</v>
       </c>
@@ -11057,7 +10414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>96</v>
       </c>
@@ -11140,7 +10497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>97</v>
       </c>
@@ -11223,7 +10580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>98</v>
       </c>
@@ -11306,7 +10663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>99</v>
       </c>
@@ -11389,7 +10746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -11472,7 +10829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>100</v>
       </c>
@@ -11543,7 +10900,7 @@
         <v>23</v>
       </c>
       <c r="X121">
-        <v>11.85</v>
+        <v>11.850000000000001</v>
       </c>
       <c r="Y121" t="s">
         <v>23</v>
@@ -11555,7 +10912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>101</v>
       </c>
@@ -11638,7 +10995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>102</v>
       </c>
@@ -11721,7 +11078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:27">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>103</v>
       </c>
@@ -11792,7 +11149,7 @@
         <v>23</v>
       </c>
       <c r="X124">
-        <v>30.9</v>
+        <v>30.900000000000002</v>
       </c>
       <c r="Y124" t="s">
         <v>23</v>
@@ -11804,7 +11161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>104</v>
       </c>
@@ -11887,7 +11244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:27">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>105</v>
       </c>
@@ -11970,7 +11327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:27">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>106</v>
       </c>
@@ -12053,7 +11410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:27">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>107</v>
       </c>
@@ -12138,27 +11495,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="9"/>
   <cols>
     <col min="6" max="6" width="25.4285714285714" customWidth="1"/>
     <col min="24" max="24" width="17.4285714285714" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>